--- a/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
+++ b/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\sprint_02\sprint_grupo7\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9AA08CB-9620-4030-BC39-9F2FFECEF0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02A67F-2094-45D5-A09F-4B61851800D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{04C4E037-2DBA-466C-9AD1-F933304BD8CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04C4E037-2DBA-466C-9AD1-F933304BD8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Requisito</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>Essencial+[@Descrição]</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>GG</t>
   </si>
 </sst>
 </file>
@@ -1488,24 +1500,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6281045-9D37-4D83-95EA-DA78B31E06C6}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:B20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="56.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" customWidth="1"/>
-    <col min="6" max="6" width="50.7265625" customWidth="1"/>
-    <col min="7" max="8" width="18.7265625" customWidth="1"/>
-    <col min="9" max="10" width="10.26953125" customWidth="1"/>
-    <col min="16" max="16" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" customWidth="1"/>
+    <col min="7" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="10" width="10.21875" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1544,8 +1556,12 @@
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="11">
+        <v>13</v>
+      </c>
       <c r="G2" s="25"/>
       <c r="H2" s="11"/>
       <c r="P2" s="32" t="s">
@@ -1553,7 +1569,7 @@
       </c>
       <c r="Q2" s="33"/>
     </row>
-    <row r="3" spans="1:17" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1566,8 +1582,12 @@
       <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="11">
+        <v>8</v>
+      </c>
       <c r="G3" s="25"/>
       <c r="H3" s="11"/>
       <c r="P3" s="34" t="s">
@@ -1575,7 +1595,7 @@
       </c>
       <c r="Q3" s="29"/>
     </row>
-    <row r="4" spans="1:17" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
@@ -1588,8 +1608,12 @@
       <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="P4" s="34" t="s">
@@ -1597,7 +1621,7 @@
       </c>
       <c r="Q4" s="29"/>
     </row>
-    <row r="5" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -1610,8 +1634,12 @@
       <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="11">
+        <v>13</v>
+      </c>
       <c r="G5" s="25"/>
       <c r="H5" s="11"/>
       <c r="P5" s="34" t="s">
@@ -1619,7 +1647,7 @@
       </c>
       <c r="Q5" s="29"/>
     </row>
-    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1632,8 +1660,12 @@
       <c r="D6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="11">
+        <v>8</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="11"/>
       <c r="I6" s="1"/>
@@ -1642,7 +1674,7 @@
       </c>
       <c r="Q6" s="30"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1655,8 +1687,12 @@
       <c r="D7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="11">
+        <v>13</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="2"/>
@@ -1665,7 +1701,7 @@
       </c>
       <c r="Q7" s="29"/>
     </row>
-    <row r="8" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1678,8 +1714,12 @@
       <c r="D8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="11">
+        <v>8</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="2"/>
@@ -1688,7 +1728,7 @@
       </c>
       <c r="Q8" s="31"/>
     </row>
-    <row r="9" spans="1:17" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
@@ -1701,13 +1741,17 @@
       <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="11">
+        <v>21</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
@@ -1720,13 +1764,17 @@
       <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="11">
+        <v>21</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
@@ -1739,13 +1787,17 @@
       <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="11">
+        <v>21</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -1758,13 +1810,17 @@
       <c r="D12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="11">
+        <v>5</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>41</v>
       </c>
@@ -1777,13 +1833,17 @@
       <c r="D13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="11"/>
+      <c r="E13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>43</v>
       </c>
@@ -1796,12 +1856,16 @@
       <c r="D14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="25">
+        <v>8</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
@@ -1814,12 +1878,16 @@
       <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="25">
+        <v>5</v>
+      </c>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>48</v>
       </c>
@@ -1832,12 +1900,16 @@
       <c r="D16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="11">
+        <v>5</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>51</v>
       </c>
@@ -1850,12 +1922,12 @@
       <c r="D17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>54</v>
       </c>
@@ -1868,12 +1940,16 @@
       <c r="D18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="25">
+        <v>13</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="50.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>56</v>
       </c>
@@ -1886,12 +1962,16 @@
       <c r="D19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="11">
+        <v>13</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>58</v>
       </c>
@@ -1905,19 +1985,19 @@
       <c r="G20" s="25"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
     </row>
   </sheetData>

--- a/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
+++ b/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PI\sprint_02\sprint_grupo7\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Desktop\Faculdade\Pesquisa e Inovação\sprint_02\sprint_grupo7\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02A67F-2094-45D5-A09F-4B61851800D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968B2656-40DA-4CD4-9972-29F2B50E4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04C4E037-2DBA-466C-9AD1-F933304BD8CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{04C4E037-2DBA-466C-9AD1-F933304BD8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>Requisito</t>
   </si>
@@ -104,9 +93,6 @@
     <t>Botões: recursos; sobre nós; sua conta; suporte; rede social. Campo email para receber informações da plataforma.</t>
   </si>
   <si>
-    <t>Botões: recursos; suporte; comece já; são redirecionamento de página.</t>
-  </si>
-  <si>
     <t>Botão: Recursos; para redirecionar para recursos.</t>
   </si>
   <si>
@@ -116,9 +102,6 @@
     <t>Campos: Foto de Perfil; Plano de Fundo; Nome; CPF/CNPJ; Email; Alteral Senha; Repetir Senha; todos tem a ação de atualizar.</t>
   </si>
   <si>
-    <t>Vai receber os campos: email e uma permissão para receber atualizações sobre a nossa plataforma; nome completo; nome de usuário; senha com confirmação e validação da mesma;  CPF/CNPJ; data de nascimento; url que redireciona para tela login;</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -228,6 +211,27 @@
   </si>
   <si>
     <t>GG</t>
+  </si>
+  <si>
+    <t>Vai receber os campos: email e  senha com confirmação e validação da mesma; nome completo; CNPJ; telefone; nome da empresa; CEP; UF; cidade; bairro; rua e complemento.</t>
+  </si>
+  <si>
+    <t>Botões: recursos; suporte; home, sobre nós, simulador financeiro e conta</t>
+  </si>
+  <si>
+    <t>SP2 B</t>
+  </si>
+  <si>
+    <t>SP2 C</t>
+  </si>
+  <si>
+    <t>SP2 A</t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
+  </si>
+  <si>
+    <t>SP2 D</t>
   </si>
 </sst>
 </file>
@@ -1500,24 +1504,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6281045-9D37-4D83-95EA-DA78B31E06C6}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="50.77734375" customWidth="1"/>
-    <col min="7" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="10" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1531,24 +1535,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>7</v>
@@ -1557,19 +1561,21 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="11">
         <v>13</v>
       </c>
       <c r="G2" s="25"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="P2" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="33"/>
     </row>
-    <row r="3" spans="1:17" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1583,24 +1589,26 @@
         <v>8</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="11">
         <v>8</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="P3" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="29"/>
     </row>
-    <row r="4" spans="1:17" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -1609,24 +1617,26 @@
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="11">
         <v>5</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="29"/>
     </row>
-    <row r="5" spans="1:17" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
@@ -1635,19 +1645,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="11">
         <v>13</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="P5" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="29"/>
     </row>
-    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1661,20 +1673,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="11">
         <v>8</v>
       </c>
       <c r="G6" s="25"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="P6" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="30"/>
     </row>
-    <row r="7" spans="1:17" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1688,25 +1702,27 @@
         <v>15</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F7" s="11">
         <v>13</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="P7" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="29"/>
     </row>
-    <row r="8" spans="1:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>7</v>
@@ -1715,20 +1731,22 @@
         <v>15</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" s="11">
         <v>8</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="P8" s="35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="31"/>
     </row>
-    <row r="9" spans="1:17" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
@@ -1742,21 +1760,23 @@
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="11">
         <v>21</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>7</v>
@@ -1765,18 +1785,20 @@
         <v>15</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="11">
         <v>21</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
@@ -1788,21 +1810,23 @@
         <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="11">
         <v>21</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>7</v>
@@ -1811,113 +1835,123 @@
         <v>8</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="11">
         <v>5</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="11">
         <v>5</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="25">
         <v>8</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>47</v>
-      </c>
       <c r="C15" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="25">
         <v>5</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="11">
         <v>5</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>53</v>
-      </c>
       <c r="C17" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>8</v>
@@ -1925,59 +1959,65 @@
       <c r="E17" s="9"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="25">
         <v>13</v>
       </c>
       <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="50.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="11">
         <v>13</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="54.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="25"/>
@@ -1985,19 +2025,19 @@
       <c r="G20" s="25"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
     </row>
   </sheetData>

--- a/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
+++ b/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Desktop\Faculdade\Pesquisa e Inovação\sprint_02\sprint_grupo7\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiag\OneDrive\Documentos\Pesquisa e inovação\sprint_01\sprint_grupo7\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968B2656-40DA-4CD4-9972-29F2B50E4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D9D96-7F32-4A79-9B75-7488C53552D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{04C4E037-2DBA-466C-9AD1-F933304BD8CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{04C4E037-2DBA-466C-9AD1-F933304BD8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -620,9 +620,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1504,540 +1504,540 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6281045-9D37-4D83-95EA-DA78B31E06C6}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>13</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="33"/>
-    </row>
-    <row r="3" spans="1:17" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>8</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="1:17" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:17" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>5</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="29"/>
-    </row>
-    <row r="5" spans="1:17" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" ht="44.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>13</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="29"/>
-    </row>
-    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="Q5" s="28"/>
+    </row>
+    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>8</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="30"/>
-    </row>
-    <row r="7" spans="1:17" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="Q6" s="29"/>
+    </row>
+    <row r="7" spans="1:17" ht="38.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>13</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="29"/>
-    </row>
-    <row r="8" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>8</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="31"/>
-    </row>
-    <row r="9" spans="1:17" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>21</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>21</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>21</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:17" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>5</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>67</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>8</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>5</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>5</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>13</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:8" ht="50.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>13</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="54.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:8" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
     </row>
   </sheetData>

--- a/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
+++ b/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Desktop\Faculdade\Pesquisa e Inovação\sprint_02\sprint_grupo7\TI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968B2656-40DA-4CD4-9972-29F2B50E4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{04C4E037-2DBA-466C-9AD1-F933304BD8CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
   <si>
     <t>Requisito</t>
   </si>
@@ -54,9 +48,6 @@
     <t>Essencial</t>
   </si>
   <si>
-    <t>Campos para receber o email ou nome do usuário; senha e uma url que transporta para página de cadastro;</t>
-  </si>
-  <si>
     <t>Importante</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>Tela Suporte</t>
   </si>
   <si>
-    <t>Campo de pesquisa</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
@@ -105,18 +93,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>SPRINT1</t>
-  </si>
-  <si>
-    <t>SPRINT2</t>
-  </si>
-  <si>
-    <t>SPRINT3</t>
-  </si>
-  <si>
-    <t>SPRINT4</t>
-  </si>
-  <si>
     <t>SPRINT5</t>
   </si>
   <si>
@@ -135,15 +111,6 @@
     <t>TAMANHO(NUMBER)</t>
   </si>
   <si>
-    <t>SIMULADOR FINANCEIRO</t>
-  </si>
-  <si>
-    <t>Aumento da produtividade e economia no desperdicio de água</t>
-  </si>
-  <si>
-    <t>Tela DASHBOARD</t>
-  </si>
-  <si>
     <t>Banco de dados MYSQL</t>
   </si>
   <si>
@@ -153,24 +120,12 @@
     <t>Modelagem lógica</t>
   </si>
   <si>
-    <t>Relacionamento entre as entidades</t>
-  </si>
-  <si>
     <t>Script banco de dados</t>
   </si>
   <si>
-    <t>Linguagem de banco de dados utilizado no projeto</t>
-  </si>
-  <si>
-    <t>Criação das entidades e inserção de dados</t>
-  </si>
-  <si>
     <t>Planilha de riscos</t>
   </si>
   <si>
-    <t>Definir impacto e probabilidades dos riscos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Não funcional </t>
   </si>
   <si>
@@ -180,27 +135,12 @@
     <t>Cabeçalho</t>
   </si>
   <si>
-    <t>Solução do nosso projeto</t>
-  </si>
-  <si>
     <t>Teste com os sensores</t>
   </si>
   <si>
-    <t>Testando a acertividade dos sensores</t>
-  </si>
-  <si>
     <t xml:space="preserve">Customização da API </t>
   </si>
   <si>
-    <t>Customizar as API com base no dashboard e no sensor utilizado</t>
-  </si>
-  <si>
-    <t>Especificações das métricas</t>
-  </si>
-  <si>
-    <t>Essencial+[@Descrição]</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -213,12 +153,6 @@
     <t>GG</t>
   </si>
   <si>
-    <t>Vai receber os campos: email e  senha com confirmação e validação da mesma; nome completo; CNPJ; telefone; nome da empresa; CEP; UF; cidade; bairro; rua e complemento.</t>
-  </si>
-  <si>
-    <t>Botões: recursos; suporte; home, sobre nós, simulador financeiro e conta</t>
-  </si>
-  <si>
     <t>SP2 B</t>
   </si>
   <si>
@@ -232,13 +166,145 @@
   </si>
   <si>
     <t>SP2 D</t>
+  </si>
+  <si>
+    <t>SPRINT2A</t>
+  </si>
+  <si>
+    <t>SPRINT2D</t>
+  </si>
+  <si>
+    <t>SPRINT3C</t>
+  </si>
+  <si>
+    <t>SPRINT2C</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>Diagrama de négocio</t>
+  </si>
+  <si>
+    <t>Formalização do projeto garantindo a sua continuidade.</t>
+  </si>
+  <si>
+    <t>Simulador financeiro</t>
+  </si>
+  <si>
+    <t>Otimização do simulador financeiro</t>
+  </si>
+  <si>
+    <t>Protótipo do site</t>
+  </si>
+  <si>
+    <t>Definição do sensor</t>
+  </si>
+  <si>
+    <t>Aplicação do nodeJS</t>
+  </si>
+  <si>
+    <t>Integração com banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Métricas </t>
+  </si>
+  <si>
+    <t>Otimização da ferramenta de gestão</t>
+  </si>
+  <si>
+    <t>Integração do suporte HELP DESK</t>
+  </si>
+  <si>
+    <t>SP A</t>
+  </si>
+  <si>
+    <t>Teste integrado do analytics</t>
+  </si>
+  <si>
+    <t>Teste integrado da solução de IoT</t>
+  </si>
+  <si>
+    <t>Teste integrado (Arduíno + DB)</t>
+  </si>
+  <si>
+    <t>Requisitos na ferramenta</t>
+  </si>
+  <si>
+    <t>Fluxograma do suporte</t>
+  </si>
+  <si>
+    <t>Documento de Mudança</t>
+  </si>
+  <si>
+    <t>Tela dashboard - com CHARTJS</t>
+  </si>
+  <si>
+    <t>Campos para receber o email ou nome do usuário; senha e uma url que transporta para página de cadastro; VALIDAÇÃO, ESTILIZAÇÃO</t>
+  </si>
+  <si>
+    <t>Vai receber os campos: email e  senha com confirmação e validação da mesma; nome completo;CNPJ, telefone; nome da empresa; CEP; UF; cidade; bairro; rua e complemento.</t>
+  </si>
+  <si>
+    <t>Representação de processos do produto.</t>
+  </si>
+  <si>
+    <t>Customizar as API com base no dashboard e no sensor utilizado.</t>
+  </si>
+  <si>
+    <t>Testando a acertividade dos sensores.</t>
+  </si>
+  <si>
+    <t>Solução do nosso projeto.</t>
+  </si>
+  <si>
+    <t>Definir impacto e probabilidades dos riscos.</t>
+  </si>
+  <si>
+    <t>Criação das entidades e inserção de dados.</t>
+  </si>
+  <si>
+    <t>Relacionamento entre as entidades.</t>
+  </si>
+  <si>
+    <t>Linguagem de banco de dados utilizado no projeto.</t>
+  </si>
+  <si>
+    <t>Botões: recursos; suporte; home, sobre nós, simulador financeiro e conta.</t>
+  </si>
+  <si>
+    <t>Definimos qual sensor será implementado no projeto.</t>
+  </si>
+  <si>
+    <t>Integração das métricas dentro do banco de dados.</t>
+  </si>
+  <si>
+    <t>Otimização e classificação de requisitos na ferramenta de gestão.</t>
+  </si>
+  <si>
+    <t>Requisisto definidos na ferramenta de gestão</t>
+  </si>
+  <si>
+    <t>Simulador de valores de perda também e ganhos do cliente.</t>
+  </si>
+  <si>
+    <t>Tela recursos</t>
+  </si>
+  <si>
+    <t>Tela onde o usuário poderá falar conosco através de um text-box.</t>
+  </si>
+  <si>
+    <t>Realizado através do figma para criar o design das páginas.</t>
+  </si>
+  <si>
+    <t>Otimizamos para um simulador mais simples e que trazem mais dados.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,24 +319,55 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -293,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -435,17 +532,6 @@
       <top style="thin">
         <color rgb="FF191D12"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF191D12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF191D12"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF191D12"/>
       </bottom>
@@ -599,11 +685,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF191D12"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF191D12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF191D12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF191D12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF191D12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF191D12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,102 +737,158 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -716,38 +898,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -767,8 +921,6 @@
         <bottom style="thin">
           <color rgb="FF191D12"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -782,20 +934,14 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0">
         <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
+          <color rgb="FF191D12"/>
         </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -807,11 +953,26 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -824,102 +985,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="-0.249977111117893"/>
         </left>
@@ -941,116 +1013,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4" tint="-0.249977111117893"/>
@@ -1077,9 +1045,114 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Arial"/>
         <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1E54CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1101,16 +1174,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF1E54CC"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1155,8 +1221,8 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Tecnosolo" pivot="0" count="1" xr9:uid="{98C12522-D330-40CF-9712-2C75DE0BCE14}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
+    <tableStyle name="Tecnosolo" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1180,8 +1246,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A878DD0B-9AD5-48DD-8937-4C0EEC7F8048}" name="Requisitos" displayName="Requisitos" ref="A1:H20" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="A1:H20" xr:uid="{A878DD0B-9AD5-48DD-8937-4C0EEC7F8048}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Requisitos" displayName="Requisitos" ref="A1:H36" headerRowDxfId="9" dataDxfId="10" totalsRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="8">
+  <autoFilter ref="A1:H36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1192,14 +1258,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8C90CC8F-8F02-4014-984D-33765FA4B112}" name="Requisito" totalsRowLabel="Total" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AEC699F5-647A-41B6-B3D4-4BB1F84B92D8}" name="Descrição" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{AEB0EB24-5A6A-45AA-A7CD-A8E726B35261}" name="Funcionalidade" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{3A2C80C5-9861-4678-B941-BEA2220C40A9}" name="Classificação" totalsRowFunction="count" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{F4FB5B84-2DA4-4920-8A23-9BE4FBF55D0C}" name="TAMANHO" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B2E04C4F-2907-40BD-A353-74FEE569500B}" name="TAMANHO(NUMBER)" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{8682C80C-0067-4830-B2FA-F3FD649F1B4F}" name="PRIORIDADE" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EDD5BA72-B6B8-49FB-99EA-D2AEC7A2D179}" name="SPRINT" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Requisito" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="2" name="Descrição" dataDxfId="6"/>
+    <tableColumn id="3" name="Funcionalidade" dataDxfId="5"/>
+    <tableColumn id="4" name="Classificação" totalsRowFunction="count" dataDxfId="4"/>
+    <tableColumn id="6" name="TAMANHO" dataDxfId="3"/>
+    <tableColumn id="7" name="TAMANHO(NUMBER)" dataDxfId="2"/>
+    <tableColumn id="8" name="PRIORIDADE" dataDxfId="1"/>
+    <tableColumn id="9" name="SPRINT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Tecnosolo" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1248,7 +1314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1300,7 +1366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1494,23 +1560,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6281045-9D37-4D83-95EA-DA78B31E06C6}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
@@ -1518,527 +1584,785 @@
     <col min="6" max="6" width="50.7109375" customWidth="1"/>
     <col min="7" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="10" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="19">
         <v>13</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="32" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>SUM(F2:F19)</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="19">
+        <v>8</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>SUM(F14,F15,F12)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="19">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>SUM(F2,F3,F4,F5,F8,F9,F16)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="44.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="19">
+        <v>13</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>SUM(F6,F7,F10,F11,F19)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="19">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="P6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="38.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="19">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="19">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="P8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="33"/>
-    </row>
-    <row r="3" spans="1:17" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="19">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="19">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="1:17" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="11">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="29"/>
-    </row>
-    <row r="5" spans="1:17" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="11">
-        <v>13</v>
-      </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="29"/>
-    </row>
-    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="E11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="19">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="11">
-        <v>8</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="P6" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="30"/>
-    </row>
-    <row r="7" spans="1:17" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="11">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="P7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="29"/>
-    </row>
-    <row r="8" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="11">
-        <v>8</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="P8" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="31"/>
-    </row>
-    <row r="9" spans="1:17" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="11">
-        <v>21</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="11">
-        <v>21</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="11">
-        <v>21</v>
-      </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="9" t="s">
-        <v>65</v>
+      <c r="H11" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="E12" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="19">
         <v>5</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="9" t="s">
-        <v>66</v>
+      <c r="H12" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>40</v>
+      <c r="A13" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="19">
         <v>5</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="9" t="s">
-        <v>67</v>
+      <c r="H13" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>40</v>
+      <c r="A14" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="E14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="33">
         <v>8</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="25" t="s">
-        <v>66</v>
+      <c r="H14" s="46" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>40</v>
+      <c r="A15" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="25">
+      <c r="E15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="33">
         <v>5</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25" t="s">
-        <v>66</v>
+      <c r="G15" s="12"/>
+      <c r="H15" s="46" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>48</v>
+      <c r="A16" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="11">
+        <v>9</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="19">
         <v>5</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="9" t="s">
-        <v>64</v>
+      <c r="G16" s="12"/>
+      <c r="H16" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>40</v>
+      <c r="A17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
-        <v>68</v>
+      <c r="E17" s="19"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="46" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>40</v>
+      <c r="A18" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="25">
+      <c r="E18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="33">
         <v>13</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25" t="s">
-        <v>68</v>
+      <c r="G18" s="12"/>
+      <c r="H18" s="46" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>40</v>
+      <c r="A19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="19">
+        <v>13</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="11">
+      <c r="B23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="54.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="49"/>
+    </row>
+    <row r="36" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
+++ b/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiag\OneDrive\Documentos\Pesquisa e inovação\sprint_01\sprint_grupo7\TI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5E9CB-313F-4D60-BE53-F2C6E0AEE187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="98">
   <si>
     <t>Requisito</t>
   </si>
@@ -298,12 +315,27 @@
   </si>
   <si>
     <t>Otimizamos para um simulador mais simples e que trazem mais dados.</t>
+  </si>
+  <si>
+    <t>SP2C</t>
+  </si>
+  <si>
+    <t>SP2D</t>
+  </si>
+  <si>
+    <t>Dados coletados pelos sensores, já guardado nas tabelas.</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Indicação e classificação das métricas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +402,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +421,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -758,11 +802,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -830,9 +871,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,7 +880,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,7 +892,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,13 +913,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,6 +1137,32 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1106,38 +1176,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF1E54CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1172,11 +1210,17 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="14"/>
+        <color theme="0"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1E54CC"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1221,7 +1265,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Tecnosolo" pivot="0" count="1">
+    <tableStyle name="Tecnosolo" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
     </tableStyle>
   </tableStyles>
@@ -1246,8 +1290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Requisitos" displayName="Requisitos" ref="A1:H36" headerRowDxfId="9" dataDxfId="10" totalsRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="8">
-  <autoFilter ref="A1:H36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requisitos" displayName="Requisitos" ref="A1:H36" headerRowDxfId="12" dataDxfId="10" totalsRowDxfId="8" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="A1:H36" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1258,14 +1302,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Requisito" totalsRowLabel="Total" dataDxfId="7"/>
-    <tableColumn id="2" name="Descrição" dataDxfId="6"/>
-    <tableColumn id="3" name="Funcionalidade" dataDxfId="5"/>
-    <tableColumn id="4" name="Classificação" totalsRowFunction="count" dataDxfId="4"/>
-    <tableColumn id="6" name="TAMANHO" dataDxfId="3"/>
-    <tableColumn id="7" name="TAMANHO(NUMBER)" dataDxfId="2"/>
-    <tableColumn id="8" name="PRIORIDADE" dataDxfId="1"/>
-    <tableColumn id="9" name="SPRINT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requisito" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descrição" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Funcionalidade" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Classificação" totalsRowFunction="count" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TAMANHO" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="TAMANHO(NUMBER)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PRIORIDADE" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="SPRINT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Tecnosolo" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1560,81 +1604,83 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>13</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="11">
+        <v>3</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>44</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -1645,27 +1691,29 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="19">
-        <v>8</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="19" t="s">
+      <c r="F3" s="18">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -1676,27 +1724,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="42.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:17" ht="42.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>5</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="49">
+        <v>13</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>44</v>
       </c>
       <c r="P4" s="3" t="s">
@@ -1707,27 +1757,29 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="44.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:17" ht="44.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>13</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>44</v>
       </c>
       <c r="P5" s="3" t="s">
@@ -1738,27 +1790,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:17" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="19">
-        <v>8</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="19" t="s">
+      <c r="F6" s="18">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11">
+        <v>18</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="1"/>
@@ -1767,27 +1821,29 @@
       </c>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="38.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:17" ht="38.700000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>13</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="49">
+        <v>7</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I7" s="2"/>
@@ -1796,27 +1852,29 @@
       </c>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="19">
-        <v>8</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="19" t="s">
+      <c r="F8" s="18">
+        <v>8</v>
+      </c>
+      <c r="G8" s="49">
+        <v>2</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="2"/>
@@ -1825,544 +1883,710 @@
       </c>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:17" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>21</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="49">
+        <v>14</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:17" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>21</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="49">
+        <v>15</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>21</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="49">
+        <v>5</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:17" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>5</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="49">
+        <v>6</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>5</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="49">
+        <v>16</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="33">
-        <v>8</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="46" t="s">
+      <c r="F14" s="32">
+        <v>8</v>
+      </c>
+      <c r="G14" s="49">
+        <v>8</v>
+      </c>
+      <c r="H14" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:17" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>5</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="46" t="s">
+      <c r="G15" s="11">
+        <v>10</v>
+      </c>
+      <c r="H15" s="44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>5</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="11">
+        <v>11</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="46" t="s">
+      <c r="D17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="11">
+        <v>9</v>
+      </c>
+      <c r="H17" s="44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="32">
         <v>13</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="46" t="s">
+      <c r="G18" s="11">
+        <v>17</v>
+      </c>
+      <c r="H18" s="44" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:8" ht="50.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="33" t="s">
+      <c r="D19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>13</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="19" t="s">
+      <c r="G19" s="49">
+        <v>12</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="33" t="s">
+      <c r="D20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="32" t="s">
+      <c r="F20" s="51">
+        <v>21</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="32" t="s">
+      <c r="F21" s="51">
+        <v>5</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="33" t="s">
+      <c r="D22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="32" t="s">
+      <c r="F22" s="51">
+        <v>13</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="D23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="32" t="s">
+      <c r="F23" s="51">
+        <v>13</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="32" t="s">
+      <c r="E24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="51">
+        <v>5</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="32" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="18">
+        <v>13</v>
+      </c>
+      <c r="G25" s="11">
+        <v>19</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="32" t="s">
+      <c r="D26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="18">
+        <v>8</v>
+      </c>
+      <c r="G26" s="11">
+        <v>24</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="18">
+        <v>8</v>
+      </c>
+      <c r="G27" s="11">
+        <v>25</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="32" t="s">
+      <c r="E28" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="18">
+        <v>3</v>
+      </c>
+      <c r="G28" s="11">
+        <v>26</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="32"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="18">
+        <v>13</v>
+      </c>
+      <c r="G29" s="11">
+        <v>29</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="32"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="18">
+        <v>21</v>
+      </c>
+      <c r="G30" s="11">
+        <v>30</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="18">
+        <v>8</v>
+      </c>
+      <c r="G31" s="11">
+        <v>21</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="32"/>
+      <c r="B32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="18">
+        <v>8</v>
+      </c>
+      <c r="G32" s="11">
+        <v>20</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="32" t="s">
+      <c r="C33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="18">
+        <v>5</v>
+      </c>
+      <c r="G33" s="11">
+        <v>28</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="34"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="21">
+        <v>13</v>
+      </c>
+      <c r="G34" s="11">
+        <v>27</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="49"/>
-    </row>
-    <row r="36" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="30">
+        <v>13</v>
+      </c>
+      <c r="G35" s="45">
+        <v>22</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="31"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="47">
+        <v>13</v>
+      </c>
+      <c r="G36" s="48">
+        <v>23</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
+++ b/sprint_grupo7/TI/Backlog_TecnoSolo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiag\OneDrive\Documentos\Pesquisa e inovação\sprint_01\sprint_grupo7\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5E9CB-313F-4D60-BE53-F2C6E0AEE187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C2A8F2-0E65-4A0E-9520-CC2A8F56D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1358,7 +1358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1410,7 +1410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>44</v>
@@ -1711,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>44</v>
@@ -1744,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>44</v>
@@ -1777,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>44</v>
@@ -1810,7 +1810,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>45</v>
@@ -1841,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>45</v>
@@ -1872,7 +1872,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>44</v>
@@ -1903,7 +1903,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>44</v>
@@ -1930,7 +1930,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>45</v>
@@ -1957,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="49">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>45</v>
@@ -1984,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>46</v>
@@ -2011,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>47</v>
@@ -2038,7 +2038,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>46</v>
@@ -2064,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>65</v>
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>44</v>
@@ -2112,7 +2112,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="32"/>
       <c r="G17" s="11">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>48</v>
@@ -2138,7 +2138,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>48</v>
@@ -2164,7 +2164,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>45</v>
@@ -2308,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="11">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>45</v>
@@ -2334,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="G26" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>45</v>
@@ -2360,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>94</v>
@@ -2386,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="11">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>44</v>
@@ -2410,7 +2410,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>93</v>
@@ -2434,7 +2434,7 @@
         <v>21</v>
       </c>
       <c r="G30" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>94</v>
@@ -2458,7 +2458,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>94</v>
@@ -2484,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>93</v>
@@ -2510,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>44</v>
@@ -2534,7 +2534,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>94</v>
@@ -2558,7 +2558,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="45">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H35" s="30" t="s">
         <v>94</v>
@@ -2582,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="48">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>93</v>
